--- a/cucumber-testng-chicago/test.xlsx
+++ b/cucumber-testng-chicago/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/GitLocal/cucumber-testng-chicago/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8066D4BA-57D3-D947-91B6-0FBB906C89B9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DDB27509-FF50-6546-823C-D6D1AEBC6D91}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
     <workbookView activeTab="2" windowHeight="21060" windowWidth="38400" xWindow="0" xr2:uid="{29F3415A-F276-7B46-974F-B69C46BE8301}" yWindow="460"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Prof.</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>111222333</t>
+  </si>
+  <si>
+    <t>dg</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED440DA-DD69-A34B-A181-D3E47F34F820}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="232" zoomScaleNormal="232">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,6 +493,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/cucumber-testng-chicago/test.xlsx
+++ b/cucumber-testng-chicago/test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Prof.</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>dg</t>
+  </si>
+  <si>
+    <t>NewValue</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED440DA-DD69-A34B-A181-D3E47F34F820}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="232" zoomScaleNormal="232">
       <selection activeCell="C3" sqref="C3"/>
@@ -484,18 +487,29 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cucumber-testng-chicago/test.xlsx
+++ b/cucumber-testng-chicago/test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/GitLocal/cucumber-testng-chicago/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DDB27509-FF50-6546-823C-D6D1AEBC6D91}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D456BF-54A3-6F45-9C68-8AD49C2E2F25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="21060" windowWidth="38400" xWindow="0" xr2:uid="{29F3415A-F276-7B46-974F-B69C46BE8301}" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{29F3415A-F276-7B46-974F-B69C46BE8301}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Prof.</t>
   </si>
@@ -62,20 +62,40 @@
     <t>status</t>
   </si>
   <si>
-    <t>111222333</t>
-  </si>
-  <si>
     <t>dg</t>
   </si>
   <si>
     <t>NewValue</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Run?</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Obama</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -103,16 +123,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -129,10 +149,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -167,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,7 +239,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -330,21 +350,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -361,7 +381,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -413,47 +433,96 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EABC0A3-7531-9C47-B4BE-08B72DE926F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EABC0A3-7531-9C47-B4BE-08B72DE926F4}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F266EA9-DF37-EE4A-BA77-E372772DF6A8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F266EA9-DF37-EE4A-BA77-E372772DF6A8}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED440DA-DD69-A34B-A181-D3E47F34F820}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED440DA-DD69-A34B-A181-D3E47F34F820}">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="232" zoomScaleNormal="232">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection sqref="A1:AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -476,7 +545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -496,23 +565,23 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cucumber-testng-chicago/test.xlsx
+++ b/cucumber-testng-chicago/test.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekchicago-1/GitLocal/cucumber-testng-chicago/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D456BF-54A3-6F45-9C68-8AD49C2E2F25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{090BD898-F27E-C74C-8B17-75C9E68E2C21}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{29F3415A-F276-7B46-974F-B69C46BE8301}"/>
+    <workbookView windowHeight="21600" windowWidth="38400" xWindow="0" xr2:uid="{29F3415A-F276-7B46-974F-B69C46BE8301}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Prof.</t>
   </si>
@@ -90,12 +90,22 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,16 +133,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -149,10 +159,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -187,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -239,7 +249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -350,21 +360,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -381,7 +391,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -433,23 +443,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EABC0A3-7531-9C47-B4BE-08B72DE926F4}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EABC0A3-7531-9C47-B4BE-08B72DE926F4}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="161" zoomScaleNormal="161">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -470,6 +480,9 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -478,6 +491,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -486,6 +502,9 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -494,29 +513,32 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F266EA9-DF37-EE4A-BA77-E372772DF6A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F266EA9-DF37-EE4A-BA77-E372772DF6A8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED440DA-DD69-A34B-A181-D3E47F34F820}">
-  <dimension ref="A1:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED440DA-DD69-A34B-A181-D3E47F34F820}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="232" zoomScaleNormal="232">
       <selection sqref="A1:AA8"/>
     </sheetView>
   </sheetViews>
@@ -582,6 +604,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>